--- a/sputnik/personal/ee/80ee.xlsx
+++ b/sputnik/personal/ee/80ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +34,21 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -50,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,15 +82,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -154,29 +151,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,26 +174,21 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,433 +496,262 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F16:F17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43232</v>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>43495</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>6400</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="3">
+        <v>7100</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>4350</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="11">
+        <v>4810</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43288</v>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>43579</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>6570</v>
+        <v>7300</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
-        <v>170</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
-        <v>765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <v>200</v>
+      </c>
+      <c r="E4" s="14">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>914</v>
+      </c>
+      <c r="G4" s="12">
+        <f>SUM(F4,F5)</f>
+        <v>1153</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>4400</v>
+      <c r="C5" s="11">
+        <v>4910</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
+        <v>100</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>117.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43337</v>
+        <v>239</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>43693</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>6700</v>
+        <v>7600</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
+        <v>300</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>1468.5</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1468.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>4460</v>
+      <c r="C7" s="11">
+        <v>4960</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
+        <v>50</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43414</v>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>43783</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
+        <v>300</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUM(F8,F9)</f>
+        <v>2076</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>4560</v>
+      <c r="C9" s="11">
+        <v>5260</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
+        <v>300</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>43495</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7100</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E10" s="15">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>914</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14">
-        <v>4810</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="E11" s="17">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>597.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>43579</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7300</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D17" si="2">C12-C10</f>
-        <v>200</v>
-      </c>
-      <c r="E12" s="15">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" ref="F12:F17" si="3">D12*E12</f>
-        <v>914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14">
-        <v>4910</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E13" s="17">
-        <v>2.39</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="3"/>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>43693</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>7600</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="E14" s="15">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="3"/>
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14">
-        <v>4960</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="E15" s="17">
-        <v>2.39</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="3"/>
-        <v>119.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>43783</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7900</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="E16" s="15">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="3"/>
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14">
-        <v>5260</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="E17" s="17">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="3"/>
-        <v>729</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(G4:G9)</f>
+        <v>4697.5</v>
+      </c>
+      <c r="H10" s="12">
+        <f>SUM(H4:H9)</f>
+        <v>4697.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/80ee.xlsx
+++ b/sputnik/personal/ee/80ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -726,32 +726,83 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
+      <c r="A10" s="13">
+        <v>43997</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8300</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <v>400</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
+        <v>1796</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(F10,F11)</f>
+        <v>2039</v>
+      </c>
+      <c r="H10" s="12">
+        <v>2039.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>5360</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="3"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G12" s="12">
         <f>SUM(G4:G9)</f>
         <v>4697.5</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H12" s="12">
         <f>SUM(H4:H9)</f>
         <v>4697.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/80ee.xlsx
+++ b/sputnik/personal/ee/80ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G13" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -777,32 +777,83 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
-        <v>10</v>
+      <c r="A12" s="13">
+        <v>44069</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
+        <v>300</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>1413</v>
       </c>
       <c r="G12" s="12">
-        <f>SUM(G4:G9)</f>
-        <v>4697.5</v>
+        <f>SUM(F12,F13)</f>
+        <v>1668</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(H4:H9)</f>
-        <v>4697.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11">
+        <v>5460</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="5"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(G4:G13)</f>
+        <v>8404.5</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H4:H13)</f>
+        <v>8405.2200000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/80ee.xlsx
+++ b/sputnik/personal/ee/80ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G2:G13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,32 +828,83 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
+      <c r="A14" s="13">
+        <v>44155</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
+        <v>300</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
+        <v>1413</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(F14,F15)</f>
+        <v>1668</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>5560</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="7"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G16" s="12">
         <f>SUM(G4:G13)</f>
         <v>8404.5</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H16" s="12">
         <f>SUM(H4:H13)</f>
         <v>8405.2200000000012</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/80ee.xlsx
+++ b/sputnik/personal/ee/80ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -879,32 +879,86 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
-        <v>10</v>
+      <c r="A16" s="13">
+        <v>44216</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>9300</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
+        <v>400</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
+        <v>1884</v>
       </c>
       <c r="G16" s="12">
-        <f>SUM(G4:G13)</f>
-        <v>8404.5</v>
+        <f>SUM(F16,F17)</f>
+        <v>2394</v>
       </c>
       <c r="H16" s="12">
-        <f>SUM(H4:H13)</f>
-        <v>8405.2200000000012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
+        <v>2394.7199999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>5760</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="9"/>
+        <v>509.99999999999994</v>
+      </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
+        <f>SUM(G4:G17)</f>
+        <v>12466.5</v>
+      </c>
+      <c r="H18" s="12">
+        <f>SUM(H4:H17)</f>
+        <v>12467.94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
+        <f>SUM(H18,-G18)</f>
+        <v>1.4400000000005093</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/80ee.xlsx
+++ b/sputnik/personal/ee/80ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -930,33 +930,84 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
+      <c r="A18" s="13">
+        <v>44273</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="10">C18-C16</f>
+        <v>300</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="11">D18*E18</f>
+        <v>1413</v>
+      </c>
+      <c r="G18" s="12">
+        <f>SUM(F18,F19)</f>
+        <v>1923</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
+        <v>5960</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="11"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G20" s="12">
         <f>SUM(G4:G17)</f>
         <v>12466.5</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H20" s="12">
         <f>SUM(H4:H17)</f>
         <v>12467.94</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
-        <f>SUM(H18,-G18)</f>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12">
+        <f>SUM(H20,-G20)</f>
         <v>1.4400000000005093</v>
       </c>
     </row>

--- a/sputnik/personal/ee/80ee.xlsx
+++ b/sputnik/personal/ee/80ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -981,33 +981,84 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
+      <c r="A20" s="13">
+        <v>44340</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9800</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="12">C20-C18</f>
+        <v>200</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="13">D20*E20</f>
+        <v>942</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(F20,F21)</f>
+        <v>1197</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>6060</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="13"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G22" s="12">
         <f>SUM(G4:G17)</f>
         <v>12466.5</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H22" s="12">
         <f>SUM(H4:H17)</f>
         <v>12467.94</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12">
-        <f>SUM(H20,-G20)</f>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12">
+        <f>SUM(H22,-G22)</f>
         <v>1.4400000000005093</v>
       </c>
     </row>

--- a/sputnik/personal/ee/80ee.xlsx
+++ b/sputnik/personal/ee/80ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1032,34 +1032,85 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10" t="s">
+      <c r="A22" s="13">
+        <v>44433</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="14">C22-C20</f>
+        <v>400</v>
+      </c>
+      <c r="E22" s="14">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
+        <v>1984</v>
+      </c>
+      <c r="G22" s="12">
+        <f>SUM(F22,F23)</f>
+        <v>2520</v>
+      </c>
+      <c r="H22" s="12">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11">
+        <v>6260</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="15"/>
+        <v>536</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="12">
-        <f>SUM(G4:G17)</f>
-        <v>12466.5</v>
-      </c>
-      <c r="H22" s="12">
-        <f>SUM(H4:H17)</f>
-        <v>12467.94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12">
-        <f>SUM(H22,-G22)</f>
-        <v>1.4400000000005093</v>
+      <c r="G24" s="12">
+        <f>SUM(G4:G23)</f>
+        <v>18106.5</v>
+      </c>
+      <c r="H24" s="12">
+        <f>SUM(H4:H23)</f>
+        <v>18107.940000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
+        <f>SUM(H24,-G24)</f>
+        <v>1.4400000000023283</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/80ee.xlsx
+++ b/sputnik/personal/ee/80ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -88,12 +88,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -187,8 +193,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -496,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,20 +551,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>43495</v>
+      <c r="A2" s="16">
+        <v>44491</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>7100</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>10600</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2-C4</f>
+        <v>400</v>
+      </c>
+      <c r="E2" s="14">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
+        <v>1984</v>
+      </c>
+      <c r="G2" s="12">
+        <f>SUM(F2,F3)</f>
+        <v>2520</v>
+      </c>
+      <c r="H2" s="12">
+        <v>2520</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
@@ -564,41 +585,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>4810</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+        <v>6460</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3-C5</f>
+        <v>200</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>536</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>43579</v>
+        <v>44433</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>7300</v>
+        <v>10200</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>200</v>
+        <f>C4-C6</f>
+        <v>400</v>
       </c>
       <c r="E4" s="14">
-        <v>4.57</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>914</v>
+        <f t="shared" si="0"/>
+        <v>1984</v>
       </c>
       <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
-        <v>1153</v>
+        <v>2520</v>
       </c>
       <c r="H4" s="12">
-        <v>1153</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -607,510 +636,81 @@
         <v>1</v>
       </c>
       <c r="C5" s="11">
-        <v>4910</v>
+        <v>6260</v>
       </c>
       <c r="D5" s="3">
+        <f>C5-C7</f>
+        <v>200</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2.68</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2.39</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>239</v>
+        <v>536</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>43693</v>
+        <v>44340</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>7600</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="E6" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>1347</v>
-      </c>
-      <c r="G6" s="12">
-        <f>SUM(F6,F7)</f>
-        <v>1468.5</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1468.5</v>
-      </c>
+        <v>9800</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>4960</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>121.50000000000001</v>
-      </c>
+        <v>6060</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>43783</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUM(G2:G3)</f>
+        <v>2520</v>
+      </c>
+      <c r="H8" s="12">
+        <f>SUM(H2:H3)</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12">
+        <f>SUM(H8,-G8)</f>
         <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>7900</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="E8" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>1347</v>
-      </c>
-      <c r="G8" s="12">
-        <f>SUM(F8,F9)</f>
-        <v>2076</v>
-      </c>
-      <c r="H8" s="12">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>5260</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>729</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>43997</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8300</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
-        <v>400</v>
-      </c>
-      <c r="E10" s="14">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
-        <v>1796</v>
-      </c>
-      <c r="G10" s="12">
-        <f>SUM(F10,F11)</f>
-        <v>2039</v>
-      </c>
-      <c r="H10" s="12">
-        <v>2039.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11">
-        <v>5360</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E11" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="3"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>44069</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>8600</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
-        <v>300</v>
-      </c>
-      <c r="E12" s="14">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
-        <v>1413</v>
-      </c>
-      <c r="G12" s="12">
-        <f>SUM(F12,F13)</f>
-        <v>1668</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11">
-        <v>5460</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="5"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>44155</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>8900</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
-        <v>300</v>
-      </c>
-      <c r="E14" s="14">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
-        <v>1413</v>
-      </c>
-      <c r="G14" s="12">
-        <f>SUM(F14,F15)</f>
-        <v>1668</v>
-      </c>
-      <c r="H14" s="12">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11">
-        <v>5560</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="E15" s="11">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="7"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>44216</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>9300</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
-        <v>400</v>
-      </c>
-      <c r="E16" s="14">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
-        <v>1884</v>
-      </c>
-      <c r="G16" s="12">
-        <f>SUM(F16,F17)</f>
-        <v>2394</v>
-      </c>
-      <c r="H16" s="12">
-        <v>2394.7199999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
-        <v>5760</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="9"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>44273</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>9600</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="10">C18-C16</f>
-        <v>300</v>
-      </c>
-      <c r="E18" s="14">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18:F19" si="11">D18*E18</f>
-        <v>1413</v>
-      </c>
-      <c r="G18" s="12">
-        <f>SUM(F18,F19)</f>
-        <v>1923</v>
-      </c>
-      <c r="H18" s="12">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11">
-        <v>5960</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="11"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>44340</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>9800</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="12">C20-C18</f>
-        <v>200</v>
-      </c>
-      <c r="E20" s="14">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:F21" si="13">D20*E20</f>
-        <v>942</v>
-      </c>
-      <c r="G20" s="12">
-        <f>SUM(F20,F21)</f>
-        <v>1197</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11">
-        <v>6060</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="E21" s="11">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="13"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>44433</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10200</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ref="D22:D23" si="14">C22-C20</f>
-        <v>400</v>
-      </c>
-      <c r="E22" s="14">
-        <v>4.96</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
-        <v>1984</v>
-      </c>
-      <c r="G22" s="12">
-        <f>SUM(F22,F23)</f>
-        <v>2520</v>
-      </c>
-      <c r="H22" s="12">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="11">
-        <v>6260</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="14"/>
-        <v>200</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2.68</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="15"/>
-        <v>536</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="12">
-        <f>SUM(G4:G23)</f>
-        <v>18106.5</v>
-      </c>
-      <c r="H24" s="12">
-        <f>SUM(H4:H23)</f>
-        <v>18107.940000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12">
-        <f>SUM(H24,-G24)</f>
-        <v>1.4400000000023283</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/80ee.xlsx
+++ b/sputnik/personal/ee/80ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -88,7 +88,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +98,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -195,6 +201,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -552,31 +561,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>44491</v>
+        <v>44552</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="D2" s="3">
         <f>C2-C4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E2" s="14">
         <v>4.96</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
-        <v>1984</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>1488</v>
       </c>
       <c r="G2" s="12">
         <f>SUM(F2,F3)</f>
-        <v>2520</v>
+        <v>2024</v>
       </c>
       <c r="H2" s="12">
-        <v>2520</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -585,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>6460</v>
+        <v>6660</v>
       </c>
       <c r="D3" s="3">
         <f>C3-C5</f>
@@ -602,14 +611,14 @@
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>44433</v>
+      <c r="A4" s="17">
+        <v>44491</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="D4" s="3">
         <f>C4-C6</f>
@@ -619,7 +628,7 @@
         <v>4.96</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
         <v>1984</v>
       </c>
       <c r="G4" s="12">
@@ -636,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="11">
-        <v>6260</v>
+        <v>6460</v>
       </c>
       <c r="D5" s="3">
         <f>C5-C7</f>
@@ -646,7 +655,7 @@
         <v>2.68</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>536</v>
       </c>
       <c r="G5" s="12"/>
@@ -654,19 +663,32 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>44340</v>
+        <v>44433</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>9800</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+        <v>10200</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6-C8</f>
+        <v>400</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>1984</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>2520</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2520</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
@@ -674,42 +696,80 @@
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>6060</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="5"/>
+        <v>6260</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-C9</f>
+        <v>200</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.68</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>536</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="12">
-        <f>SUM(G2:G3)</f>
-        <v>2520</v>
-      </c>
-      <c r="H8" s="12">
-        <f>SUM(H2:H3)</f>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A8" s="13">
+        <v>44340</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9800</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
+        <v>6060</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="5"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="12">
-        <f>SUM(H8,-G8)</f>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(G4:G5)</f>
+        <v>2520</v>
+      </c>
+      <c r="H10" s="12">
+        <f>SUM(H4:H5)</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
+        <f>SUM(H10,-G10)</f>
         <v>0</v>
       </c>
     </row>
